--- a/data/trans_camb/P16A05-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Dificultad-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A05-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.4015385014865376</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6.4548384645808</v>
+        <v>6.454838464580803</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.485684476031143</v>
@@ -664,7 +664,7 @@
         <v>1.74639304835518</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>6.311451160810273</v>
+        <v>6.311451160810271</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.399483370163075</v>
+        <v>-3.594444793819914</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.651679139015718</v>
+        <v>-2.594776991503247</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.380056924101903</v>
+        <v>3.565578166278867</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2000318948900071</v>
+        <v>-0.2344597900852399</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.716974272990634</v>
+        <v>1.268411469939775</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.803287862581734</v>
+        <v>3.414039123243334</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.357762183306694</v>
+        <v>-1.387469921035051</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0004147265277827306</v>
+        <v>0.08272975082720474</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.152803651537856</v>
+        <v>4.121235621640562</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7885178140675041</v>
+        <v>0.7718862772233295</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.730498348011358</v>
+        <v>1.681989826362148</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.645592974055504</v>
+        <v>10.33250151394043</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.977665286745999</v>
+        <v>4.998035193128814</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.944182062239435</v>
+        <v>6.821848080489628</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.477628947535829</v>
+        <v>9.146198806039738</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.144016544221044</v>
+        <v>2.164173809050376</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.47084719706014</v>
+        <v>3.520189291041603</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.520789415664927</v>
+        <v>8.538206342351049</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.2510855719004838</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.9074213423642317</v>
+        <v>0.9074213423642312</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5457488776743011</v>
+        <v>-0.5777283946291669</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4104142609510377</v>
+        <v>-0.4269289259775549</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.5246895460370539</v>
+        <v>0.5398923188726441</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.0444407497662512</v>
+        <v>-0.02240182569089519</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1622991759080927</v>
+        <v>0.1160620880098512</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3958522479151161</v>
+        <v>0.3461953670684771</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1715081269218618</v>
+        <v>-0.1718412415368698</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.0005287171854618955</v>
+        <v>0.01074337152231585</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5187457612114458</v>
+        <v>0.5159221509802411</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2158143388207547</v>
+        <v>0.2185138952841726</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4778804831039521</v>
+        <v>0.4922214575658312</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.53836595297251</v>
+        <v>2.694059317401343</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7164260854441243</v>
+        <v>0.7140645385237574</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.021772226738148</v>
+        <v>0.9536689673132533</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.364395917279499</v>
+        <v>1.298356214732563</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3553267673222452</v>
+        <v>0.3511567249509972</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5711485710962808</v>
+        <v>0.6048119092507196</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.421006564368338</v>
+        <v>1.323337574532506</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>1.286252252063592</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.684373819567328</v>
+        <v>3.684373819567326</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1090184370102812</v>
+        <v>0.1680876919878534</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3012907347010241</v>
+        <v>0.3769539297567638</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7317062059172952</v>
+        <v>0.9247023209125484</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.232063687889672</v>
+        <v>-1.389604030328048</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.397956626180038</v>
+        <v>-1.480697581296909</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.783870452315212</v>
+        <v>2.47951669997621</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.1527733075333721</v>
+        <v>-0.09913421225746272</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.009512395041609147</v>
+        <v>-0.1360134238848347</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.409756271499545</v>
+        <v>2.39812360289642</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.178935805249721</v>
+        <v>3.270713523184551</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.265266781834998</v>
+        <v>3.269711246555191</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.891019462848305</v>
+        <v>3.956042056593571</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.684240270770824</v>
+        <v>2.678882204907993</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.739933975462581</v>
+        <v>2.629530415477249</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.568827698416145</v>
+        <v>6.464053131136269</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.513052635125778</v>
+        <v>2.556302563937307</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.605851221854318</v>
+        <v>2.573779518488242</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.922724015224836</v>
+        <v>4.966577762188797</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.00524822391051633</v>
+        <v>-0.01574564299135222</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1033044118527621</v>
+        <v>0.1473766933012861</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2429171599223016</v>
+        <v>0.3135784822794005</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2082367851099323</v>
+        <v>-0.2324302532662594</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2455973715505244</v>
+        <v>-0.2407040005086364</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4545937673907902</v>
+        <v>0.3823866949900819</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03437745016884667</v>
+        <v>-0.02803486791010132</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0008011154707235628</v>
+        <v>-0.03748907044364386</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5617147598598331</v>
+        <v>0.5664558100193219</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.255282044362219</v>
+        <v>2.317993903685432</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.485707617796635</v>
+        <v>2.426222012323694</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.814346159529308</v>
+        <v>2.896259541235215</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5877135708774249</v>
+        <v>0.6189309405093814</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6687129768466329</v>
+        <v>0.6273794896022109</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.663452250992128</v>
+        <v>1.609717744313693</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8622121375960201</v>
+        <v>0.8676411789269785</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8995244783021288</v>
+        <v>0.8762577350752391</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.686386515133203</v>
+        <v>1.660109868396222</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.4443224993717271</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.208438446632235</v>
+        <v>0.2084384466322347</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.08837153298951</v>
@@ -1092,7 +1092,7 @@
         <v>0.9697323696701982</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.643681922026844</v>
+        <v>1.643681922026845</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.83666469837771</v>
+        <v>-0.6856514450230707</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.8374879233501175</v>
+        <v>-0.8720837778460293</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.006772941295191</v>
+        <v>-0.8946259355770406</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.7335069438556076</v>
+        <v>-0.5152974964656905</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.2918888117583579</v>
+        <v>-0.2967492560854422</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.410775318237659</v>
+        <v>1.294464798105064</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.2484506572335874</v>
+        <v>-0.2749439833864158</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.1536160937494633</v>
+        <v>-0.1198494793336587</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6645492561194992</v>
+        <v>0.5982799242417116</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.206360623542604</v>
+        <v>2.213567742507182</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.04082147474207</v>
+        <v>1.84979019377509</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.458083201824857</v>
+        <v>1.515309633476793</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.782019775532854</v>
+        <v>2.930870467419632</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.380839009133617</v>
+        <v>3.494973771795574</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.730794954153574</v>
+        <v>4.813444932779657</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.051602167171652</v>
+        <v>2.074146990720188</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.17631775733204</v>
+        <v>2.131001051637678</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.64027819495089</v>
+        <v>2.639645755997995</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2035820758630524</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.09550345011801724</v>
+        <v>0.09550345011801707</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.3370682794476771</v>
@@ -1197,7 +1197,7 @@
         <v>0.3625988580895368</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.6145996634020218</v>
+        <v>0.614599663402022</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3210293125990316</v>
+        <v>-0.2735108445885215</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3254296436697682</v>
+        <v>-0.3431054681331007</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3635163024627543</v>
+        <v>-0.3332543099006155</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1809114317525556</v>
+        <v>-0.163348133425239</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.0902747653571576</v>
+        <v>-0.08832567619944587</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3065010143826606</v>
+        <v>0.3130958204526628</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.08519512343568912</v>
+        <v>-0.09238667857845569</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.06850422446552609</v>
+        <v>-0.04763126653442449</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1933444419345174</v>
+        <v>0.1997140535311939</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.352084204365968</v>
+        <v>1.402244841494145</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.225833077201982</v>
+        <v>1.193150572381611</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8943280988474616</v>
+        <v>0.9894911268350498</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.069347407807734</v>
+        <v>1.155106389854552</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.329446697256244</v>
+        <v>1.400211097026452</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.890647200273719</v>
+        <v>1.862073234636386</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8895998691941751</v>
+        <v>0.8842281943057229</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.004838528574844</v>
+        <v>0.9939076352861305</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.177714723611458</v>
+        <v>1.231962699247875</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.09662724658450854</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.633663604000562</v>
+        <v>0.6336636040005627</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.393201655834196</v>
@@ -1306,7 +1306,7 @@
         <v>-0.04035905695855824</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.8732619244112443</v>
+        <v>0.8732619244112428</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5978939789292969</v>
+        <v>-0.5501925520095844</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.773100922115391</v>
+        <v>-1.67564318333971</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.132290315759904</v>
+        <v>-1.26049636668514</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.8537416290943588</v>
+        <v>-0.7370369283547497</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.902402445673573</v>
+        <v>-3.393494729110092</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.133494229715273</v>
+        <v>-2.17034271685559</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1312713959802006</v>
+        <v>0.3539398182775305</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.740509363054427</v>
+        <v>-1.781459175648876</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.4864081955051945</v>
+        <v>-0.8943246014395979</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.101752678087164</v>
+        <v>4.223411945090797</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.049814283866744</v>
+        <v>2.116784416950486</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.195525318237766</v>
+        <v>2.115557138662663</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.593088140786668</v>
+        <v>5.455588617234056</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.440646345960823</v>
+        <v>2.115862251197752</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.029870001242235</v>
+        <v>3.067903317866136</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.934526810325531</v>
+        <v>4.110211647274015</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.552576930876874</v>
+        <v>1.49145661602981</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.212735133003269</v>
+        <v>2.152883660363241</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.05046080052823145</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3309125930180331</v>
+        <v>0.3309125930180334</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.57337295529379</v>
@@ -1411,7 +1411,7 @@
         <v>-0.01395314474953449</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3019086904849825</v>
+        <v>0.301908690484982</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.318807912730555</v>
+        <v>-0.316302636866071</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6302473763278695</v>
+        <v>-0.6159526983679032</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3798662686156448</v>
+        <v>-0.4216428915802428</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.172876533828393</v>
+        <v>-0.161842064824877</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5302351401732055</v>
+        <v>-0.5657804727195143</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3132895410379837</v>
+        <v>-0.3233896132119328</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.003670575598928256</v>
+        <v>0.04083963221647987</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4645759504979948</v>
+        <v>-0.4608013069410998</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1247477060940724</v>
+        <v>-0.2209149712991377</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.832822734422243</v>
+        <v>3.71452208256371</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.255717676455607</v>
+        <v>1.934290923891551</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.127900385152797</v>
+        <v>2.263566333376892</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.071185248537578</v>
+        <v>1.981428150164511</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9670150122988127</v>
+        <v>0.7764117632516174</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.225376690935634</v>
+        <v>1.17168570269276</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.876719074806925</v>
+        <v>1.995065356095899</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.750734557266744</v>
+        <v>0.7325048796403876</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.121372811957048</v>
+        <v>1.096643257676669</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.8906120684466091</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.665397690787563</v>
+        <v>1.665397690787564</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.765124152428387</v>
@@ -1520,7 +1520,7 @@
         <v>1.643333005706982</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2.446490554399974</v>
+        <v>2.446490554399972</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.03732391333199937</v>
+        <v>-0.04828339026274744</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.067269722111442</v>
+        <v>-0.04395621255402915</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.830404793100171</v>
+        <v>0.7501185996167564</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.4900331672107004</v>
+        <v>0.5797904991295392</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.15148326574086</v>
+        <v>1.127808608851938</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.047320922771716</v>
+        <v>1.984429017175518</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.6035298026257113</v>
+        <v>0.57101298401792</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.8388912936783677</v>
+        <v>0.9033916361119146</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.759924418309358</v>
+        <v>1.767365009718351</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.814098207784059</v>
+        <v>1.6805387294946</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.7468866197952</v>
+        <v>1.684076626890779</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.619711304128761</v>
+        <v>2.548213563352987</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.862136992111211</v>
+        <v>2.931630842901348</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.644882098105565</v>
+        <v>3.538849478296656</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.174136966299178</v>
+        <v>4.171711762023365</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.060146101671447</v>
+        <v>2.006244489232744</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.36115281973465</v>
+        <v>2.349886171235133</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.112773766851137</v>
+        <v>3.109122498836849</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.3472855580434305</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.6494057142277224</v>
+        <v>0.6494057142277226</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3325790293026785</v>
@@ -1625,7 +1625,7 @@
         <v>0.4156355683457963</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.6187720252069026</v>
+        <v>0.6187720252069022</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.00861328961019274</v>
+        <v>-0.02146643206731051</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.01033131367689303</v>
+        <v>-0.02068848703885082</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.252180146856957</v>
+        <v>0.2501401463673503</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.07846836259629721</v>
+        <v>0.09709203829668747</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1990234022763615</v>
+        <v>0.1886467287569815</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3416859938873525</v>
+        <v>0.3203713738831479</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1390534055876589</v>
+        <v>0.1246555117305126</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2040049466129114</v>
+        <v>0.2103025160424429</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3950424577496907</v>
+        <v>0.4050005485323522</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8275041915358582</v>
+        <v>0.7564166635691503</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7889782091968329</v>
+        <v>0.7675074467885925</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.147280069359906</v>
+        <v>1.157621875378802</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5855219477014235</v>
+        <v>0.6199832717598707</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7680418226906084</v>
+        <v>0.7392388380658205</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8603624466160246</v>
+        <v>0.8794162515994906</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5653004083055614</v>
+        <v>0.5441189233440336</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6439908349232781</v>
+        <v>0.6517400727444287</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.8676543382195061</v>
+        <v>0.8524568453252378</v>
       </c>
     </row>
     <row r="34">
